--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <sheet name=" COMPRAS  OCTUBRE   2022     " sheetId="20" r:id="rId20"/>
     <sheet name="   N O V I E M  B R E    2022  " sheetId="21" r:id="rId21"/>
     <sheet name="COMPRAS NOVIEMBRE 2022" sheetId="22" r:id="rId22"/>
-    <sheet name="Hoja3" sheetId="23" r:id="rId23"/>
+    <sheet name="  D I C I E M B R E    2 0 2 2 " sheetId="23" r:id="rId23"/>
+    <sheet name=" COMPRAS DICIEMBRE  20222 " sheetId="24" r:id="rId24"/>
+    <sheet name="Hoja2" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -170,6 +172,64 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ROUSS</author>
@@ -692,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="590">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2466,6 +2526,15 @@
   </si>
   <si>
     <t>18324 d</t>
+  </si>
+  <si>
+    <t>COMISION ???</t>
+  </si>
+  <si>
+    <t>COMISIONES Bco</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    DICIEMBRE    2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +3011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3018,6 +3087,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3832,7 +3907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4563,39 +4638,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4677,6 +4719,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4689,6 +4764,15 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5570,6 +5654,432 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10344149"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="9848850"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10344149"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="9829800"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="8963022"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="10656050"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="10677525"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9695,23 +10205,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9721,21 +10231,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9750,14 +10260,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9767,11 +10277,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11226,11 +11736,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11255,8 +11765,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11463,29 +11973,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -11496,22 +12006,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -11542,11 +12052,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -11563,22 +12073,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11703,6 +12213,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11718,12 +12234,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13176,23 +13686,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13202,21 +13712,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13231,14 +13741,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13248,11 +13758,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14782,11 +15292,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14817,8 +15327,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15064,29 +15574,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15097,22 +15607,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15143,11 +15653,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15164,22 +15674,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15307,18 +15817,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15328,6 +15826,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16809,23 +17319,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16835,21 +17345,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16864,14 +17374,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16881,11 +17391,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18330,11 +18840,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18363,8 +18873,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -18579,29 +19089,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -18612,22 +19122,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18658,11 +19168,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18679,22 +19189,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18819,18 +19329,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18840,6 +19338,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20231,23 +20741,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20257,21 +20767,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20286,14 +20796,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20303,11 +20813,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21787,11 +22297,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21820,8 +22330,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22036,29 +22546,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22069,22 +22579,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22115,11 +22625,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22136,10 +22646,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22276,18 +22786,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22297,6 +22795,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23743,23 +24253,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23769,21 +24279,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23798,14 +24308,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23815,11 +24325,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -25547,11 +26057,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -25586,8 +26096,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25830,29 +26340,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25863,22 +26373,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25909,11 +26419,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25930,10 +26440,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -26073,6 +26583,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26082,18 +26604,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27563,10 +28073,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27591,23 +28101,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -27617,21 +28127,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27646,14 +28156,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -27663,11 +28173,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29149,13 +29659,13 @@
       <c r="H35" s="324"/>
       <c r="I35" s="29"/>
       <c r="J35" s="71">
-        <v>44855</v>
-      </c>
-      <c r="K35" s="351" t="s">
-        <v>205</v>
+        <v>44848</v>
+      </c>
+      <c r="K35" s="376" t="s">
+        <v>549</v>
       </c>
       <c r="L35" s="78">
-        <v>1392</v>
+        <v>71514</v>
       </c>
       <c r="M35" s="30">
         <v>0</v>
@@ -29166,11 +29676,11 @@
       <c r="O35" s="314"/>
       <c r="P35" s="32">
         <f t="shared" si="1"/>
-        <v>1392</v>
+        <v>71514</v>
       </c>
       <c r="Q35" s="12">
         <f t="shared" si="0"/>
-        <v>1392</v>
+        <v>71514</v>
       </c>
       <c r="R35" s="8">
         <v>0</v>
@@ -29187,14 +29697,14 @@
       <c r="G36" s="323"/>
       <c r="H36" s="324"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="289">
-        <v>44859</v>
-      </c>
-      <c r="K36" s="356" t="s">
-        <v>204</v>
+      <c r="J36" s="71">
+        <v>44854</v>
+      </c>
+      <c r="K36" s="358" t="s">
+        <v>464</v>
       </c>
       <c r="L36" s="78">
-        <v>979.68</v>
+        <v>549</v>
       </c>
       <c r="M36" s="30">
         <v>0</v>
@@ -29205,11 +29715,11 @@
       <c r="O36" s="314"/>
       <c r="P36" s="32">
         <f t="shared" si="1"/>
-        <v>979.68</v>
+        <v>549</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="0"/>
-        <v>979.68</v>
+        <v>549</v>
       </c>
       <c r="R36" s="8">
         <v>0</v>
@@ -29227,13 +29737,13 @@
       <c r="H37" s="324"/>
       <c r="I37" s="29"/>
       <c r="J37" s="71">
-        <v>44862</v>
-      </c>
-      <c r="K37" s="357" t="s">
-        <v>548</v>
+        <v>44855</v>
+      </c>
+      <c r="K37" s="351" t="s">
+        <v>205</v>
       </c>
       <c r="L37" s="78">
-        <v>3210.56</v>
+        <v>1392</v>
       </c>
       <c r="M37" s="30">
         <v>0</v>
@@ -29244,11 +29754,11 @@
       <c r="O37" s="314"/>
       <c r="P37" s="32">
         <f t="shared" si="1"/>
-        <v>3210.56</v>
+        <v>1392</v>
       </c>
       <c r="Q37" s="12">
         <f t="shared" si="0"/>
-        <v>3210.56</v>
+        <v>1392</v>
       </c>
       <c r="R37" s="8">
         <v>0</v>
@@ -29265,14 +29775,14 @@
       <c r="G38" s="323"/>
       <c r="H38" s="324"/>
       <c r="I38" s="29"/>
-      <c r="J38" s="71">
-        <v>44848</v>
-      </c>
-      <c r="K38" s="376" t="s">
-        <v>549</v>
+      <c r="J38" s="289">
+        <v>44859</v>
+      </c>
+      <c r="K38" s="356" t="s">
+        <v>204</v>
       </c>
       <c r="L38" s="78">
-        <v>71514</v>
+        <v>979.68</v>
       </c>
       <c r="M38" s="30">
         <v>0</v>
@@ -29283,11 +29793,11 @@
       <c r="O38" s="314"/>
       <c r="P38" s="32">
         <f t="shared" si="1"/>
-        <v>71514</v>
+        <v>979.68</v>
       </c>
       <c r="Q38" s="12">
         <f t="shared" si="0"/>
-        <v>71514</v>
+        <v>979.68</v>
       </c>
       <c r="R38" s="8">
         <v>0</v>
@@ -29304,9 +29814,15 @@
       <c r="G39" s="323"/>
       <c r="H39" s="324"/>
       <c r="I39" s="29"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="358"/>
-      <c r="L39" s="73"/>
+      <c r="J39" s="71">
+        <v>44862</v>
+      </c>
+      <c r="K39" s="357" t="s">
+        <v>548</v>
+      </c>
+      <c r="L39" s="73">
+        <v>3210.56</v>
+      </c>
       <c r="M39" s="30">
         <v>0</v>
       </c>
@@ -29316,11 +29832,11 @@
       <c r="O39" s="314"/>
       <c r="P39" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3210.56</v>
       </c>
       <c r="Q39" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3210.56</v>
       </c>
       <c r="R39" s="8">
         <v>0</v>
@@ -29340,11 +29856,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29354,7 +29870,7 @@
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>108155.44</v>
+        <v>108704.43999999999</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -29374,8 +29890,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -29572,7 +30088,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>146296.24</v>
+        <v>146845.24</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -29590,32 +30106,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
-        <v>151758.24</v>
-      </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+        <v>152307.24</v>
+      </c>
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>2467848.5599999996</v>
+        <v>2467299.5599999996</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -29623,22 +30139,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
-        <v>149596.74999999977</v>
-      </c>
-      <c r="L55" s="431"/>
+        <v>149047.74999999977</v>
+      </c>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -29662,18 +30178,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>-325354.01000000024</v>
+        <v>-325903.01000000024</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -29690,10 +30206,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -29703,7 +30219,7 @@
       <c r="J59" s="436"/>
       <c r="K59" s="437">
         <f>K55+K57</f>
-        <v>-92757.460000000225</v>
+        <v>-93306.460000000225</v>
       </c>
       <c r="L59" s="437"/>
     </row>
@@ -29829,19 +30345,10 @@
       <c r="F81" s="144"/>
     </row>
   </sheetData>
+  <sortState ref="J34:L39">
+    <sortCondition ref="J34:J39"/>
+  </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29851,6 +30358,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31646,7 +32165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32989,8 +33508,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59:J59"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33015,23 +33534,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33041,21 +33560,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33070,14 +33589,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33087,11 +33606,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -34525,9 +35044,15 @@
       <c r="G34" s="323"/>
       <c r="H34" s="324"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="354"/>
-      <c r="L34" s="80"/>
+      <c r="J34" s="71">
+        <v>44888</v>
+      </c>
+      <c r="K34" s="354" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="80">
+        <v>1392</v>
+      </c>
       <c r="M34" s="30">
         <v>0</v>
       </c>
@@ -34537,11 +35062,11 @@
       <c r="O34" s="314"/>
       <c r="P34" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q34" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R34" s="8">
         <v>0</v>
@@ -34558,9 +35083,15 @@
       <c r="G35" s="323"/>
       <c r="H35" s="324"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="351"/>
-      <c r="L35" s="78"/>
+      <c r="J35" s="71">
+        <v>44888</v>
+      </c>
+      <c r="K35" s="351" t="s">
+        <v>464</v>
+      </c>
+      <c r="L35" s="78">
+        <v>549</v>
+      </c>
       <c r="M35" s="30">
         <v>0</v>
       </c>
@@ -34570,11 +35101,11 @@
       <c r="O35" s="314"/>
       <c r="P35" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q35" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="R35" s="8">
         <v>0</v>
@@ -34591,9 +35122,15 @@
       <c r="G36" s="323"/>
       <c r="H36" s="324"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="289"/>
-      <c r="K36" s="356"/>
-      <c r="L36" s="78"/>
+      <c r="J36" s="289">
+        <v>44875</v>
+      </c>
+      <c r="K36" s="288" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="78">
+        <v>33500</v>
+      </c>
       <c r="M36" s="30">
         <v>0</v>
       </c>
@@ -34603,11 +35140,11 @@
       <c r="O36" s="314"/>
       <c r="P36" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33500</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33500</v>
       </c>
       <c r="R36" s="8">
         <v>0</v>
@@ -34624,9 +35161,15 @@
       <c r="G37" s="323"/>
       <c r="H37" s="324"/>
       <c r="I37" s="29"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="357"/>
-      <c r="L37" s="78"/>
+      <c r="J37" s="71">
+        <v>44890</v>
+      </c>
+      <c r="K37" s="357" t="s">
+        <v>587</v>
+      </c>
+      <c r="L37" s="78">
+        <v>1225.1199999999999</v>
+      </c>
       <c r="M37" s="30">
         <v>0</v>
       </c>
@@ -34636,11 +35179,11 @@
       <c r="O37" s="314"/>
       <c r="P37" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="Q37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="R37" s="8">
         <v>0</v>
@@ -34657,9 +35200,15 @@
       <c r="G38" s="323"/>
       <c r="H38" s="324"/>
       <c r="I38" s="29"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="329"/>
-      <c r="L38" s="78"/>
+      <c r="J38" s="71">
+        <v>44890</v>
+      </c>
+      <c r="K38" s="329" t="s">
+        <v>588</v>
+      </c>
+      <c r="L38" s="78">
+        <v>2725.09</v>
+      </c>
       <c r="M38" s="30">
         <v>0</v>
       </c>
@@ -34669,11 +35218,11 @@
       <c r="O38" s="314"/>
       <c r="P38" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2725.09</v>
       </c>
       <c r="Q38" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2725.09</v>
       </c>
       <c r="R38" s="8">
         <v>0</v>
@@ -34726,11 +35275,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -34740,7 +35289,7 @@
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>39391.210000000006</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -34760,8 +35309,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -34958,7 +35507,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>41510</v>
+        <v>80901.209999999992</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -34976,32 +35525,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
-        <v>45543</v>
-      </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+        <v>84934.209999999992</v>
+      </c>
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>3025964</v>
+        <v>2986572.79</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -35009,22 +35558,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
-        <v>476443.67999999988</v>
-      </c>
-      <c r="L55" s="431"/>
+        <v>437052.46999999991</v>
+      </c>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35048,18 +35597,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>89719.129999999888</v>
+        <v>50327.919999999925</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35076,18 +35625,20 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="435"/>
+      <c r="I59" s="435" t="s">
+        <v>168</v>
+      </c>
       <c r="J59" s="436"/>
       <c r="K59" s="437">
         <f>K55+K57</f>
-        <v>57018.919999999867</v>
+        <v>17627.709999999905</v>
       </c>
       <c r="L59" s="437"/>
     </row>
@@ -35214,6 +35765,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35223,18 +35786,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35249,8 +35800,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36592,6 +37143,3097 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="112" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="174"/>
+    <col min="20" max="20" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="424"/>
+      <c r="C2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="429" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="429"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="4"/>
+      <c r="R3" s="396" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
+        <v>315698.55</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44892</v>
+      </c>
+      <c r="E4" s="430" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="433"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="403" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="320">
+        <v>44893</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="322">
+        <v>44893</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="324">
+        <v>44893</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="30">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0</v>
+      </c>
+      <c r="O5" s="314"/>
+      <c r="P5" s="32">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="369"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="320">
+        <v>44894</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="322">
+        <v>44894</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324">
+        <v>44894</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="314"/>
+      <c r="P6" s="32">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="369"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="320">
+        <v>44895</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="328"/>
+      <c r="E7" s="322">
+        <v>44895</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="324">
+        <v>44895</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="O7" s="314"/>
+      <c r="P7" s="32">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" ref="Q7:Q39" si="0">P7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="369"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="320">
+        <v>44896</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="328"/>
+      <c r="E8" s="322">
+        <v>44896</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="324">
+        <v>44896</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="314"/>
+      <c r="P8" s="32">
+        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="369"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="320">
+        <v>44897</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="322">
+        <v>44897</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="324">
+        <v>44897</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0</v>
+      </c>
+      <c r="O9" s="314"/>
+      <c r="P9" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="369"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="320">
+        <v>44898</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="326"/>
+      <c r="E10" s="322">
+        <v>44898</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="323"/>
+      <c r="H10" s="324">
+        <v>44898</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="332"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" s="314"/>
+      <c r="P10" s="32">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="369"/>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="320">
+        <v>44899</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="322">
+        <v>44899</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="324">
+        <v>44899</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0</v>
+      </c>
+      <c r="O11" s="314"/>
+      <c r="P11" s="32">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="369"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="320">
+        <v>44900</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="322">
+        <v>44900</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="324">
+        <v>44900</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="314"/>
+      <c r="P12" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="369"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="320">
+        <v>44901</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="328"/>
+      <c r="E13" s="322">
+        <v>44901</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="324">
+        <v>44901</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="314"/>
+      <c r="P13" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="369"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="320">
+        <v>44902</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="335"/>
+      <c r="E14" s="322">
+        <v>44902</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="324">
+        <v>44902</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="330"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="314"/>
+      <c r="P14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="369"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="320">
+        <v>44903</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="322">
+        <v>44903</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324">
+        <v>44903</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="314"/>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="369"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="320">
+        <v>44904</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="326"/>
+      <c r="E16" s="322">
+        <v>44904</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="323"/>
+      <c r="H16" s="324">
+        <v>44904</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <v>0</v>
+      </c>
+      <c r="O16" s="314"/>
+      <c r="P16" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="369"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="320">
+        <v>44905</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="328"/>
+      <c r="E17" s="322">
+        <v>44905</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="324">
+        <v>44905</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="314"/>
+      <c r="P17" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="369"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="320">
+        <v>44906</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="326"/>
+      <c r="E18" s="322">
+        <v>44906</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="323"/>
+      <c r="H18" s="324">
+        <v>44906</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="337"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="314"/>
+      <c r="P18" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="369"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="320">
+        <v>44907</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="326"/>
+      <c r="E19" s="322">
+        <v>44907</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="324">
+        <v>44907</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="338"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="314"/>
+      <c r="P19" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="369"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="320">
+        <v>44908</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="326"/>
+      <c r="E20" s="322">
+        <v>44908</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="323"/>
+      <c r="H20" s="324">
+        <v>44908</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="339"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="314"/>
+      <c r="P20" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="369"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="320">
+        <v>44909</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="326"/>
+      <c r="E21" s="322">
+        <v>44909</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="324">
+        <v>44909</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="340"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="314"/>
+      <c r="P21" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="369"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="320">
+        <v>44910</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="326"/>
+      <c r="E22" s="322">
+        <v>44910</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324">
+        <v>44910</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="330"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="O22" s="314"/>
+      <c r="P22" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
+      <c r="S22" s="369"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="320">
+        <v>44911</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="322">
+        <v>44911</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="323"/>
+      <c r="H23" s="324">
+        <v>44911</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="341"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0</v>
+      </c>
+      <c r="O23" s="314"/>
+      <c r="P23" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="369"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="320">
+        <v>44912</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="322">
+        <v>44912</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="324">
+        <v>44912</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="343"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+      <c r="O24" s="314"/>
+      <c r="P24" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
+      <c r="S24" s="369"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="320">
+        <v>44913</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="326"/>
+      <c r="E25" s="322">
+        <v>44913</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="324">
+        <v>44913</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="344"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="314"/>
+      <c r="P25" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
+      <c r="S25" s="369"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="320">
+        <v>44914</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="322">
+        <v>44914</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="324">
+        <v>44914</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="343"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="314"/>
+      <c r="P26" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
+      <c r="S26" s="369"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="320">
+        <v>44915</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="322">
+        <v>44915</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="324">
+        <v>44915</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="314"/>
+      <c r="P27" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
+      <c r="S27" s="369"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="320">
+        <v>44916</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="322">
+        <v>44916</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="323"/>
+      <c r="H28" s="324">
+        <v>44916</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="314"/>
+      <c r="P28" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
+      <c r="S28" s="369"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="320">
+        <v>44917</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="322">
+        <v>44917</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="323"/>
+      <c r="H29" s="324">
+        <v>44917</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="348"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="314"/>
+      <c r="P29" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
+      <c r="S29" s="369"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="320">
+        <v>44918</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="347"/>
+      <c r="E30" s="322">
+        <v>44918</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="323"/>
+      <c r="H30" s="324">
+        <v>44918</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="349"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0</v>
+      </c>
+      <c r="O30" s="314"/>
+      <c r="P30" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="369"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="320">
+        <v>44919</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="350"/>
+      <c r="E31" s="322">
+        <v>44919</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="324">
+        <v>44919</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="351"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="314"/>
+      <c r="P31" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="369"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="320">
+        <v>44920</v>
+      </c>
+      <c r="C32" s="438"/>
+      <c r="D32" s="445"/>
+      <c r="E32" s="440">
+        <v>44920</v>
+      </c>
+      <c r="F32" s="446"/>
+      <c r="G32" s="442"/>
+      <c r="H32" s="443">
+        <v>44920</v>
+      </c>
+      <c r="I32" s="444"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="349"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0</v>
+      </c>
+      <c r="O32" s="314"/>
+      <c r="P32" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
+      <c r="S32" s="369"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="320">
+        <v>44921</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="322">
+        <v>44921</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="323"/>
+      <c r="H33" s="324">
+        <v>44921</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="351"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="314"/>
+      <c r="P33" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
+      <c r="S33" s="369"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="320">
+        <v>44922</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="352"/>
+      <c r="E34" s="322">
+        <v>44922</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="323"/>
+      <c r="H34" s="324">
+        <v>44922</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" s="314"/>
+      <c r="P34" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="12">
+        <v>0</v>
+      </c>
+      <c r="S34" s="369"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="320">
+        <v>44923</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="350"/>
+      <c r="E35" s="322">
+        <v>44923</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="324">
+        <v>44923</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="351"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" s="314"/>
+      <c r="P35" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0</v>
+      </c>
+      <c r="S35" s="369"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="320">
+        <v>44924</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="322">
+        <v>44924</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="324">
+        <v>44924</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="289"/>
+      <c r="K36" s="356"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="314"/>
+      <c r="P36" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="12">
+        <v>0</v>
+      </c>
+      <c r="S36" s="369"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="320">
+        <v>44925</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="352"/>
+      <c r="E37" s="322">
+        <v>44925</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="323"/>
+      <c r="H37" s="324">
+        <v>44925</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="314"/>
+      <c r="P37" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="12">
+        <v>0</v>
+      </c>
+      <c r="S37" s="369"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="320">
+        <v>44926</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="353"/>
+      <c r="E38" s="322">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="324">
+        <v>44926</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="329"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="30">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="314"/>
+      <c r="P38" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="12">
+        <v>0</v>
+      </c>
+      <c r="S38" s="369"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="320">
+        <v>44927</v>
+      </c>
+      <c r="C39" s="438"/>
+      <c r="D39" s="439"/>
+      <c r="E39" s="440">
+        <v>44927</v>
+      </c>
+      <c r="F39" s="441"/>
+      <c r="G39" s="442"/>
+      <c r="H39" s="443">
+        <v>44927</v>
+      </c>
+      <c r="I39" s="444"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="358"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="30">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="O39" s="314"/>
+      <c r="P39" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0</v>
+      </c>
+      <c r="S39" s="369"/>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="320">
+        <v>44928</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="322">
+        <v>44928</v>
+      </c>
+      <c r="F40" s="359"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="324">
+        <v>44928</v>
+      </c>
+      <c r="I40" s="86"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="360"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="405">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="407">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="284">
+        <f>SUM(Q5:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="316">
+        <f>SUM(R5:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="320"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="355"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="323"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="363"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="364"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="366"/>
+      <c r="H42" s="367"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="95"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="320"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="364"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="366"/>
+      <c r="H43" s="367"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="351"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="320"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="355"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="366"/>
+      <c r="H44" s="367"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="368"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="320"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="355"/>
+      <c r="E45" s="364"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="366"/>
+      <c r="H45" s="367"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="351"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="281"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="251"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="95"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="95"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="95"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="88"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="31"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="102">
+        <f>SUM(C5:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="103"/>
+      <c r="E51" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="105">
+        <f>SUM(F5:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="103"/>
+      <c r="H51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="107">
+        <f>SUM(I5:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="108"/>
+      <c r="K51" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="110">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="409" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="410"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="411">
+        <f>I51+L51</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
+        <f>N40+M40</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="414"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="415" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="415"/>
+      <c r="F54" s="115">
+        <f>F51-K53-C51</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="116"/>
+      <c r="J54" s="117"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="416"/>
+      <c r="F55" s="111">
+        <v>0</v>
+      </c>
+      <c r="I55" s="417" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
+        <f>F57+F58+F59</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="420"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="118"/>
+      <c r="E56" s="375"/>
+      <c r="F56" s="119">
+        <v>0</v>
+      </c>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="123"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="111">
+        <f>SUM(F54:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="125"/>
+      <c r="K57" s="421">
+        <f>-C4</f>
+        <v>-315698.55</v>
+      </c>
+      <c r="L57" s="422"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="128"/>
+      <c r="D59" s="398" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="399"/>
+      <c r="F59" s="129">
+        <v>0</v>
+      </c>
+      <c r="I59" s="435" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="436"/>
+      <c r="K59" s="437">
+        <f>K55+K57</f>
+        <v>-315698.55</v>
+      </c>
+      <c r="L59" s="437"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="130"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="133"/>
+      <c r="J60" s="134"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="32"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="33"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="137"/>
+      <c r="C63" s="141"/>
+      <c r="E63" s="32"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="137"/>
+      <c r="C64" s="141"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="142"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="137"/>
+      <c r="C65" s="141"/>
+      <c r="E65" s="32"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="137"/>
+      <c r="C66" s="141"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="144"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="145"/>
+      <c r="F67" s="32"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="145"/>
+      <c r="F68" s="32"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="145"/>
+      <c r="F69" s="32"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E70" s="145"/>
+      <c r="F70" s="32"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="145"/>
+      <c r="F71" s="32"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="145"/>
+      <c r="F72" s="32"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="145"/>
+      <c r="F73" s="32"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="145"/>
+      <c r="F74" s="32"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="145"/>
+      <c r="F75" s="32"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="145"/>
+      <c r="F76" s="32"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E77" s="145"/>
+      <c r="F77" s="32"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E78" s="145"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="144"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="144"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="144"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="224" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="238" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="33"/>
+    <col min="10" max="11" width="17.140625" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="377"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="152">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="379"/>
+      <c r="B4" s="380"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="188">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="256"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="379"/>
+      <c r="B5" s="380"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="391"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="188">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="379"/>
+      <c r="B6" s="380"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="391"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="379"/>
+      <c r="B8" s="380"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="391"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="379"/>
+      <c r="B9" s="380"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="379"/>
+      <c r="B10" s="380"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="379"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="267">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="379"/>
+      <c r="B12" s="380"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="156"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="379"/>
+      <c r="B13" s="380"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="379"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="379"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="379"/>
+      <c r="B16" s="380"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="379"/>
+      <c r="B17" s="380"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="379"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="379"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="379"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="379"/>
+      <c r="B21" s="380"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="379"/>
+      <c r="B22" s="380"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="379"/>
+      <c r="B23" s="380"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="379"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="156"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="379"/>
+      <c r="B25" s="380"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="379"/>
+      <c r="B26" s="380"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="379"/>
+      <c r="B27" s="380"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="379"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="379"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="257"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="257"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="257"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="156"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="257"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="257"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="257"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="257"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="257"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="257"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="257"/>
+      <c r="B39" s="258"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="257"/>
+      <c r="B40" s="258"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="257"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="257"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="259"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="257"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="157"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="388"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="388"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="388"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="158"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="388"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="388"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="158"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="388"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="158"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="388"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="388"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="158"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="388"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="388"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="388"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="158"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="388"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="158"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="388"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="158"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="388"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="388"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="158"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="388"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="158"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="388"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="388"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="158"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="388"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="389"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="389"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="389"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="389"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="389"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="161"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="389"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="158"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="388"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="158"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="388"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="188">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="158"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="388"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="158"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="388"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="158"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="388"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="158"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="388"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="158"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="388"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="158"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="388"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="158"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="388"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="158"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="388"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="165"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="32">
+        <v>0</v>
+      </c>
+      <c r="D78" s="389"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="204"/>
+      <c r="B79" s="223"/>
+      <c r="C79" s="395">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="191"/>
+      <c r="E79" s="170">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="171">
+        <f>F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="389"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="389"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="225"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="225"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="225"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="225"/>
+      <c r="F85" s="33"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="225"/>
+      <c r="F86" s="33"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="225"/>
+      <c r="F87" s="33"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="225"/>
+      <c r="F88" s="33"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="225"/>
+      <c r="F89" s="33"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="225"/>
+      <c r="F90" s="33"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="225"/>
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="225"/>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="225"/>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="225"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="225"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="225"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="225"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="225"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="225"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="225"/>
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="225"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="225"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="225"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="225"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="225"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="225"/>
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="225"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="225"/>
+      <c r="E108" s="33"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="225"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="225"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="225"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="225"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="225"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="225"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36634,23 +40276,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -36660,21 +40302,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -36689,14 +40331,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -36706,11 +40348,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -38151,7 +41793,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -38176,8 +41818,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -38384,29 +42026,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -38417,22 +42059,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -38463,11 +42105,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -38484,22 +42126,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -38624,6 +42266,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -38633,18 +42287,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39949,23 +43591,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -39975,21 +43617,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -40004,14 +43646,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -40021,11 +43663,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -41476,11 +45118,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -41505,8 +45147,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -41645,29 +45287,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="420" t="s">
+      <c r="H49" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="421"/>
+      <c r="I49" s="410"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="422">
+      <c r="K49" s="411">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="423"/>
-      <c r="M49" s="424">
+      <c r="L49" s="412"/>
+      <c r="M49" s="413">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="425"/>
+      <c r="N49" s="414"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="426" t="s">
+      <c r="D50" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="426"/>
+      <c r="E50" s="415"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -41678,22 +45320,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="427" t="s">
+      <c r="D51" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="427"/>
+      <c r="E51" s="416"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="428" t="s">
+      <c r="I51" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="429"/>
-      <c r="K51" s="430">
+      <c r="J51" s="418"/>
+      <c r="K51" s="419">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="431"/>
+      <c r="L51" s="420"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -41724,11 +45366,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="432">
+      <c r="K53" s="421">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="433"/>
+      <c r="L53" s="422"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -41745,22 +45387,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="409" t="s">
+      <c r="D55" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="410"/>
+      <c r="E55" s="399"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="411" t="s">
+      <c r="I55" s="400" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="412"/>
-      <c r="K55" s="413">
+      <c r="J55" s="401"/>
+      <c r="K55" s="402">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="413"/>
+      <c r="L55" s="402"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -41888,18 +45530,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41909,6 +45539,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43383,23 +47025,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -43409,21 +47051,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -43438,14 +47080,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -43455,11 +47097,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45056,11 +48698,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -45091,8 +48733,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -45323,29 +48965,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -45356,22 +48998,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -45402,11 +49044,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -45423,22 +49065,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -45566,18 +49208,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45587,6 +49217,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47090,23 +50732,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="396"/>
-      <c r="C1" s="398" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="425" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="397"/>
+      <c r="B2" s="424"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47116,21 +50758,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="401"/>
+      <c r="B3" s="427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="429" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="402"/>
+      <c r="I3" s="429"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="396" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47145,14 +50787,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="404"/>
-      <c r="H4" s="405" t="s">
+      <c r="F4" s="431"/>
+      <c r="H4" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="406"/>
+      <c r="I4" s="433"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47162,11 +50804,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="397"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -48683,11 +52325,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="405">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="407">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -48712,8 +52354,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="406"/>
+      <c r="N41" s="408"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -48924,29 +52566,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="410"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="411">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="412"/>
+      <c r="M53" s="413">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="414"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="415" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="415"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -48957,22 +52599,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="416" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="416"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="418"/>
+      <c r="K55" s="419">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="420"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49003,11 +52645,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="421">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="422"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49024,22 +52666,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="399"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="400" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="401"/>
+      <c r="K59" s="402">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="402"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -49167,6 +52809,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49176,18 +52830,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
